--- a/biology/Botanique/Humidimètre/Humidimètre.xlsx
+++ b/biology/Botanique/Humidimètre/Humidimètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Humidim%C3%A8tre</t>
+          <t>Humidimètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un humidimètre sert à mesurer le taux d'humidité (teneur en eau) dans un matériau poreux (bois[1], plâtre, sol ou dans des produits agricoles (céréales, oléagineux, etc.)
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un humidimètre sert à mesurer le taux d'humidité (teneur en eau) dans un matériau poreux (bois, plâtre, sol ou dans des produits agricoles (céréales, oléagineux, etc.)
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Humidim%C3%A8tre</t>
+          <t>Humidimètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'un hygromètre mesure l’humidité de l'air, un humidimètre mesure la teneur en eau dans un matériau ou produit solide.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Humidim%C3%A8tre</t>
+          <t>Humidimètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Mesures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un humidimètre mesure en général la conductivité électrique[réf. nécessaire] ou la permittivité (humidimètre TDR et FDR), l'humidité est ensuite déduite à l'aide d'une calibration.
 On peut mesurer ainsi l'humidité :
 des sols ;
-des matériaux de construction (plâtre, béton, etc.)[2] ;
-du papier[3],  du cuir, des grains, des meules de foin, du tabac, du coton[4], du houblon, du bois, etc.
+des matériaux de construction (plâtre, béton, etc.) ;
+du papier,  du cuir, des grains, des meules de foin, du tabac, du coton, du houblon, du bois, etc.
 Les appareils modernes sont en général électroniques, constitués d'un boîtier indiquant l'humidité en % et d'électrodes sur l'appareil ou déportées pour des mesures spécifiques (grande électrode pour les meule de foin, par exemple).
 </t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Humidim%C3%A8tre</t>
+          <t>Humidimètre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les humidimètres utilisés pour mesurer le taux d'humidité (titre massique en eau) des grains de céréales et graines oléagineuses sont réglementés au titre de la métrologie légale[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les humidimètres utilisés pour mesurer le taux d'humidité (titre massique en eau) des grains de céréales et graines oléagineuses sont réglementés au titre de la métrologie légale.
 </t>
         </is>
       </c>
